--- a/자리배치도.xlsx
+++ b/자리배치도.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\수업시작\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>하건호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김효리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,6 +83,18 @@
   </si>
   <si>
     <t xml:space="preserve">강사 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박준상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김찬양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤소정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -499,9 +507,7 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="C1" s="3"/>
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
@@ -511,11 +517,9 @@
     <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="4"/>
       <c r="E2" s="4">
-        <v>991126</v>
+        <v>9911</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -524,7 +528,9 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
@@ -538,9 +544,11 @@
     </row>
     <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8307</v>
+      </c>
       <c r="C4" s="2">
         <v>8905</v>
       </c>
@@ -554,16 +562,18 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="5" t="s">
         <v>1</v>
       </c>
@@ -579,88 +589,102 @@
       <c r="E6" s="6">
         <v>9504</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6">
+        <v>9610</v>
+      </c>
       <c r="G6" s="6">
         <v>9802</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>9207</v>
+      </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2">
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>9906</v>
+      </c>
+      <c r="G8" s="2">
         <v>401</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>9207</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="2">
+        <v>401</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9906</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
         <v>9207</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="E11" s="2">
-        <v>401</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="6">
         <v>9802</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6">
+        <v>9610</v>
+      </c>
       <c r="C13" s="6">
         <v>9504</v>
       </c>
@@ -683,7 +707,9 @@
       <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>7</v>
       </c>
@@ -699,9 +725,11 @@
       <c r="E15" s="2">
         <v>8905</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>8307</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -710,9 +738,7 @@
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
@@ -720,16 +746,15 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
-        <v>991126</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>9911</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/자리배치도.xlsx
+++ b/자리배치도.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>하건호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,18 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김민주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김지윤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최승일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,6 +83,10 @@
   </si>
   <si>
     <t>윤소정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0401</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +197,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -509,7 +504,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -526,25 +521,21 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>8307</v>
@@ -552,27 +543,23 @@
       <c r="C4" s="2">
         <v>8905</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>9111</v>
-      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>1</v>
@@ -597,58 +584,58 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="2">
-        <v>9207</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
         <v>9906</v>
       </c>
       <c r="G8" s="2">
-        <v>401</v>
+        <v>9207</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="2">
-        <v>401</v>
+        <v>9207</v>
       </c>
       <c r="B11" s="2">
         <v>9906</v>
@@ -656,8 +643,8 @@
       <c r="C11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>9207</v>
+      <c r="G11" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -665,17 +652,17 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.6">
@@ -697,31 +684,23 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="2">
-        <v>9111</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="E15" s="2">
         <v>8905</v>
       </c>
@@ -729,14 +708,14 @@
         <v>8307</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
